--- a/M-VT20.xlsx
+++ b/M-VT20.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="22">
   <si>
     <t xml:space="preserve">Контрольные</t>
   </si>
@@ -97,7 +97,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
@@ -135,6 +135,13 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Helvetica Neue"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -191,7 +198,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -208,10 +215,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -228,11 +231,19 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -261,71 +272,71 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="7.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="7.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="10.96"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="10.96"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="10.96"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="10" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="5" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="6.75"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="9.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="9.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="10" style="1" width="9.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="4" width="9.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="6" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="7" t="n">
         <v>44077</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8" t="n">
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="n">
         <v>44091</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="7" t="n">
         <v>44098</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -336,11 +347,28 @@
       <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
@@ -349,17 +377,27 @@
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -369,11 +407,28 @@
       <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -382,15 +437,27 @@
       <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -400,21 +467,27 @@
       <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -424,21 +497,27 @@
       <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
+      <c r="C8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -448,13 +527,28 @@
       <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="C9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
@@ -463,13 +557,28 @@
       <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="C10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
@@ -478,11 +587,28 @@
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -491,15 +617,28 @@
       <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="C12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
@@ -508,11 +647,28 @@
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
@@ -521,21 +677,27 @@
       <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+      <c r="C14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -545,42 +707,59 @@
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="C15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="C20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="C23" s="3"/>
     </row>
   </sheetData>

--- a/M-VT20.xlsx
+++ b/M-VT20.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="24">
   <si>
     <t xml:space="preserve">Контрольные</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t xml:space="preserve">15.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/11</t>
   </si>
   <si>
     <t xml:space="preserve">Андросов Владислав</t>
@@ -215,6 +221,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -240,10 +250,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -272,92 +278,100 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="6.75"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="9.59"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="9.59"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="10" style="1" width="9.59"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="4" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="4.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="4.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="4.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="6.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="4" width="6.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="13" style="1" width="6.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="5" width="6.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="8"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="9"/>
       <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="8" t="n">
         <v>44077</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7" t="n">
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="n">
         <v>44091</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="8" t="n">
         <v>44098</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>8</v>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -369,18 +383,21 @@
       <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="K3" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>9</v>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -388,29 +405,35 @@
         <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>11</v>
+      <c r="B5" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
@@ -424,23 +447,29 @@
         <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="K5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>12</v>
+      <c r="A6" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
@@ -448,181 +477,217 @@
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="K6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>13</v>
+      <c r="B7" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>14</v>
+      <c r="B8" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>18</v>
+      <c r="B12" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -639,18 +704,24 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="K12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>19</v>
+      <c r="B13" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
         <v>4</v>
       </c>
@@ -669,48 +740,60 @@
       <c r="J13" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="K13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>20</v>
+      <c r="A14" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>5</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
@@ -727,6 +810,12 @@
         <v>4</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>4</v>
       </c>
     </row>

--- a/M-VT20.xlsx
+++ b/M-VT20.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="24">
   <si>
     <t xml:space="preserve">Контрольные</t>
   </si>
   <si>
-    <t xml:space="preserve"> numpy</t>
+    <t xml:space="preserve">numpy</t>
   </si>
   <si>
     <t xml:space="preserve">matplotlib</t>
@@ -204,7 +204,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -242,6 +242,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -278,32 +282,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:BL23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L5" activeCellId="0" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="4.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="4.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="4.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="6.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="4" width="6.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="13" style="1" width="6.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="5" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="9.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="3.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="6.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="5.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="5.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="4" width="5.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="13" style="1" width="5.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="5" width="5.62"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -321,7 +326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="10" customFormat="true" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -347,18 +352,71 @@
       <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -388,21 +446,21 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
+      <c r="F4" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>12</v>
@@ -424,10 +482,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -460,10 +518,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -473,8 +531,8 @@
       <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>4</v>
+      <c r="F6" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>12</v>
@@ -485,8 +543,8 @@
       <c r="I6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>4</v>
+      <c r="J6" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>12</v>
@@ -496,17 +554,17 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="3" t="n">
@@ -532,17 +590,17 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+      <c r="A8" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="3" t="n">
@@ -568,13 +626,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
+      <c r="A9" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="4"/>
@@ -604,13 +662,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
+      <c r="A10" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="4"/>
@@ -640,10 +698,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
+      <c r="A11" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -676,17 +734,17 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
+      <c r="A12" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -712,10 +770,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
+      <c r="A13" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -748,17 +806,17 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="3" t="n">
@@ -784,10 +842,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
+      <c r="A15" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -820,35 +878,35 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
+      <c r="A20" s="14"/>
       <c r="C20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
+      <c r="A21" s="14"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+      <c r="A22" s="14"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
+      <c r="A23" s="14"/>
       <c r="C23" s="3"/>
     </row>
   </sheetData>

--- a/M-VT20.xlsx
+++ b/M-VT20.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="30">
   <si>
     <t xml:space="preserve">Контрольные</t>
   </si>
@@ -31,25 +31,43 @@
     <t xml:space="preserve">matplotlib</t>
   </si>
   <si>
+    <t xml:space="preserve">sklearn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зачет</t>
+  </si>
+  <si>
     <t xml:space="preserve">ФИО</t>
   </si>
   <si>
+    <t xml:space="preserve">03/09</t>
+  </si>
+  <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">01.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.10</t>
+    <t xml:space="preserve">17/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/10</t>
   </si>
   <si>
     <t xml:space="preserve">29/10</t>
   </si>
   <si>
     <t xml:space="preserve">05/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/11</t>
   </si>
   <si>
     <t xml:space="preserve">Андросов Владислав</t>
@@ -289,23 +307,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M14" activeCellId="0" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="9.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="3.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="6.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="5.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="5.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="4" width="5.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="13" style="1" width="5.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="5" width="5.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="7.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="7.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="7.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="4" width="7.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="7.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.08"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="17" style="1" width="4.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="5" width="4.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -325,42 +344,52 @@
       <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="M1" s="0"/>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="0"/>
+      <c r="P1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" s="10" customFormat="true" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8" t="n">
-        <v>44077</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8" t="n">
-        <v>44091</v>
-      </c>
-      <c r="F2" s="8" t="n">
-        <v>44098</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="3"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -417,32 +446,32 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -450,35 +479,44 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -486,35 +524,38 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -522,35 +563,44 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -558,35 +608,44 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -594,35 +653,44 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -630,35 +698,38 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -666,35 +737,38 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -702,35 +776,38 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -738,35 +815,38 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -774,35 +854,38 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -810,35 +893,44 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>5</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -846,35 +938,38 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/M-VT20.xlsx
+++ b/M-VT20.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="30">
   <si>
     <t xml:space="preserve">Контрольные</t>
   </si>
@@ -307,24 +307,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M16" activeCellId="0" sqref="M16"/>
+      <selection pane="bottomRight" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="3.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="7.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="7.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="7.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="4" width="7.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="7.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.08"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="17" style="1" width="4.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="5" width="4.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="5.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="5.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="5.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="4" width="5.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="5.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="5.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.72"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="17" style="1" width="3.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="5" width="3.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -533,8 +533,8 @@
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
+      <c r="F5" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>7</v>
@@ -545,8 +545,8 @@
       <c r="I5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>7</v>
+      <c r="J5" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>18</v>
@@ -556,6 +556,12 @@
       </c>
       <c r="M5" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
